--- a/downloads/sfu-atom-import-list.xlsx
+++ b/downloads/sfu-atom-import-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radancy/Documents/SFUWork/ArrangementDescription/Template/5_Descriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C35BB4-28AE-7B40-A62C-234D892FCECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE661CA-9D50-B045-A54C-46D8F424F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="1380" windowWidth="28920" windowHeight="24940" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Files" sheetId="2" r:id="rId2"/>
     <sheet name="Items" sheetId="12" r:id="rId3"/>
     <sheet name="Taxonomies" sheetId="3" r:id="rId4"/>
-    <sheet name="Instructions" sheetId="13" r:id="rId5"/>
+    <sheet name="Guidelines" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="access_status">Taxonomies!$A$4:$A$13</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="120">
   <si>
     <t>Title</t>
   </si>
@@ -263,9 +263,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Instructions</t>
-  </si>
-  <si>
     <t>Series tab</t>
   </si>
   <si>
@@ -399,6 +396,12 @@
   </si>
   <si>
     <t>Source of supplied title; optional on FILE and ITEM tabs</t>
+  </si>
+  <si>
+    <t>Complete data entry, save tab as csv</t>
+  </si>
+  <si>
+    <t>Guidelines</t>
   </si>
 </sst>
 </file>
@@ -467,12 +470,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -485,7 +497,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -552,6 +564,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2804,10 +2828,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A239A3-D65A-D140-9CAB-B17A0A309219}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2820,405 +2844,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
+      <c r="C7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="21" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="D30" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="21" t="s">
+      <c r="E30" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="21" t="s">
+      <c r="D32" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E32" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>116</v>
-      </c>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B45" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C47" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D47" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>103</v>
+      <c r="E47" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
